--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1918198.141153188</v>
+        <v>1915653.548458904</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>96.86671316392793</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>68.11693918766164</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>9.695822934736741</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159726</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>116.938717990299</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>55.48873486566936</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760048</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425921</v>
+        <v>23.94240680425887</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074802</v>
+        <v>44.33060630074783</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>39.74037932758279</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3.481777442255103</v>
       </c>
     </row>
     <row r="7">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.05337266685125</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8100533469031</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>44.05841908588584</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>4.023709124811027</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>55.31717029709943</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>88.37993586869925</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976962</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>250.7831302631782</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365895</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814967</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>161.0175085755492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.4528255976022</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>89.67992556049165</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184683</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703257</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>41.55695577161244</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183505</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238241</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217875</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>212.5602966632213</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>20.22544352992953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358744</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611593575</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>75.00788511617631</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608991</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>315.4971313776549</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>302.2669968018387</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>112.847211785354</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262266</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262266</v>
+        <v>511.862417143343</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097415</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312954</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="V2" t="n">
-        <v>224.5974673148104</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148104</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148104</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832529</v>
+        <v>322.4426321268584</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.6734660885896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>382.6734660885896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>233.7390564273384</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652808</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652808</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652808</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="V3" t="n">
-        <v>740.3085881251427</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="W3" t="n">
-        <v>740.3085881251427</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>550.8888031086576</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>550.8888031086576</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.3515513733121</v>
+        <v>841.6085069816227</v>
       </c>
       <c r="C5" t="n">
-        <v>595.3890344329004</v>
+        <v>841.6085069816227</v>
       </c>
       <c r="D5" t="n">
-        <v>595.3890344329004</v>
+        <v>483.3428083748722</v>
       </c>
       <c r="E5" t="n">
-        <v>595.3890344329004</v>
+        <v>365.222891212954</v>
       </c>
       <c r="F5" t="n">
-        <v>184.4031296432929</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017215</v>
+        <v>111.6705539017222</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746972</v>
+        <v>277.9807166746986</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030754</v>
+        <v>521.2049416030777</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709168</v>
+        <v>823.50819357092</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.71856654065</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300998</v>
+        <v>1562.810726301005</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437434</v>
+        <v>1562.810726301005</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.951391437434</v>
+        <v>1562.810726301005</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.951391437434</v>
+        <v>1231.747838957434</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.951391437434</v>
+        <v>1231.747838957434</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.951391437434</v>
+        <v>1231.747838957434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.951391437434</v>
+        <v>841.6085069816227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787522</v>
+        <v>61.6678846478756</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806061</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189975</v>
+        <v>399.8722171189989</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223494</v>
+        <v>668.6238185223517</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352471</v>
+        <v>958.8971200352503</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228318</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703772</v>
+        <v>1401.100270703777</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703772</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703772</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>1360.958473403183</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="V6" t="n">
-        <v>1125.806365171441</v>
+        <v>827.6166521873845</v>
       </c>
       <c r="W6" t="n">
-        <v>871.5690084432392</v>
+        <v>573.3792954591829</v>
       </c>
       <c r="X6" t="n">
-        <v>663.7175082377064</v>
+        <v>365.5277952536501</v>
       </c>
       <c r="Y6" t="n">
-        <v>663.7175082377064</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="E7" t="n">
-        <v>221.9059560034066</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F7" t="n">
-        <v>75.01600850549627</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574677</v>
+        <v>64.24066662574718</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584113</v>
+        <v>132.1299861584121</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347968</v>
+        <v>206.968037834798</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195361</v>
+        <v>287.8841338195377</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934711</v>
+        <v>342.310156193473</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.819049585802</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.819049585802</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.819049585802</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.819049585802</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857997</v>
+        <v>145.4773021217104</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857997</v>
+        <v>145.4773021217104</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857997</v>
+        <v>34.55805631675776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>466.3457425838894</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>466.3457425838894</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838894</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711883</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2123.95637328255</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.782375434466</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>1913.782375434466</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>1582.719488090895</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>1229.950832820781</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>856.4850745597012</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
-        <v>466.3457425838894</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>349.1412095166637</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="C9" t="n">
-        <v>349.1412095166637</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1676.954384839855</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1482.244063313831</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1254.142473447095</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1018.990365215352</v>
+        <v>937.3096188498791</v>
       </c>
       <c r="W9" t="n">
-        <v>764.7530084871505</v>
+        <v>683.0722621216776</v>
       </c>
       <c r="X9" t="n">
-        <v>556.9015082816177</v>
+        <v>475.2207619161447</v>
       </c>
       <c r="Y9" t="n">
-        <v>349.1412095166637</v>
+        <v>267.4604631511908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307324</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183966</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681613</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783596</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5434,37 +5434,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
         <v>1755.431557602302</v>
@@ -5473,13 +5473,13 @@
         <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226941</v>
+        <v>762.5477693179067</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947872</v>
+        <v>593.6115863899998</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>443.4949469776641</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>295.581853395271</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.476762093131</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U19" t="n">
-        <v>1817.401535437329</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1562.717047231442</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1273.299877194481</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.310326296464</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529338</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>695.5020655703128</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>695.5020655703128</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>545.385426157977</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038359</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>363.7369613277393</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453462</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453462</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6546,19 +6546,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868275</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.8410298377091</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679489</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>572.9069687101817</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7339,43 +7339,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,22 +7424,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510504</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304617</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7810,46 +7810,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.89260457059808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.505489761042</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>125.5054897610418</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532905</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472234</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194312</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604338</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143904</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.62417772602282</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>266.2975548066615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685074</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>59.21924749803978</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405012</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>211.5151132204147</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405011</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="12">
@@ -26314,34 +26314,34 @@
         <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.619783005</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
@@ -26350,10 +26350,10 @@
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253114</v>
+        <v>270592.3620253137</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231948</v>
+        <v>115410.0540231918</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742643</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854488</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588194</v>
+        <v>62913.63765881999</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197533</v>
+        <v>27875.25362197464</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26436,19 +26436,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936827</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352150.0288615908</v>
+        <v>-352150.0288615904</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923397225</v>
+        <v>21096.71923396994</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370343</v>
+        <v>199917.112937037</v>
       </c>
       <c r="E6" t="n">
-        <v>-152389.813657034</v>
+        <v>-152424.5515824709</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917945</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917941</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="I6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="J6" t="n">
-        <v>399988.4491886852</v>
+        <v>399953.7112632499</v>
       </c>
       <c r="K6" t="n">
-        <v>386139.7562584105</v>
+        <v>386105.0183329743</v>
       </c>
       <c r="L6" t="n">
-        <v>421178.1402952547</v>
+        <v>421143.4023698201</v>
       </c>
       <c r="M6" t="n">
-        <v>291907.0133656322</v>
+        <v>291872.2754401963</v>
       </c>
       <c r="N6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917942</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.3939172298</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917942</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950611</v>
+        <v>758.8996292950625</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594705</v>
+        <v>431.975703959472</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,34 +26957,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821562</v>
+        <v>210.429688382158</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262403</v>
+        <v>94.81103524262153</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931522</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931522</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931502</v>
+        <v>244.4501167931522</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>28.60460395604682</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988657</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
-        <v>183.0523213773687</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897334</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
-        <v>223.1047642146885</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.3002871593224</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213437</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625609</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>264.9916520819628</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>356.76314986838</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760027</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937518</v>
+        <v>43.32085084937508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>186.0936112964163</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>202.2009183350493</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>126.5690991633705</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304055</v>
+        <v>30.24193919304038</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589162</v>
+        <v>36.91115760589142</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3275899769249</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>86.75488962336451</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>204.0485487447928</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>39.18364296475571</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>49.19507802459995</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>1.35451306064985</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.026981639778852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3.876109364510143e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.179333311515024e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3.876109364510143e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085671</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429369</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520267</v>
+        <v>388.0799144520274</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511774</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968097</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610694</v>
+        <v>544.3712888610703</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860969</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898978</v>
+        <v>69.52130774898991</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.20152915062492</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316629</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721894</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.600297965809</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374451</v>
+        <v>388.3776244374458</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872494</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947719</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378877</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734529</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635556</v>
+        <v>96.75348224635573</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054707</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830797</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656346</v>
+        <v>0.0746458651765636</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198388</v>
+        <v>77.89141170198434</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.681035281191</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695369</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644785</v>
+        <v>314.9582252644794</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308266</v>
+        <v>207.4834477308274</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092685</v>
+        <v>27.38366498092711</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573039</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923152</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437907</v>
       </c>
       <c r="N6" t="n">
-        <v>293.205355063533</v>
+        <v>293.2053550635338</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930007</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729186</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872812</v>
+        <v>68.38629016872849</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554458</v>
+        <v>29.98243465554486</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501466</v>
+        <v>68.57507023501503</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230864</v>
+        <v>75.59399159230904</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876155</v>
+        <v>81.7334302876159</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569185</v>
+        <v>54.97578017569219</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235219</v>
+        <v>27.78676100235248</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096365</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060476</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001049</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409631</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38178,7 +38178,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
